--- a/data/substrate_comparisons/TableS2_dictionary.xlsx
+++ b/data/substrate_comparisons/TableS2_dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/University_of_Minnesota/Wackett_Lab/github/synbio-data-analysis/data/substrate_comparisons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/University_of_Minnesota/Wackett_Lab/github/thiolase-machine-learning/data/substrate_comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D90F18-18AB-484A-8F78-54335A091FBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8E4DA8-0B95-6C41-BBCF-48DCFE93B3DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30480" yWindow="1160" windowWidth="25600" windowHeight="14700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,8 +1073,166 @@
     </r>
   </si>
   <si>
+    <t>Ikai (1980). Thermostability and aliphatic index of globular proteins. Journal of Biochemistry, 88(6), 1895-1898.</t>
+  </si>
+  <si>
+    <t>Osorio, D., Rondon-Villarreal, P. &amp; Torres, R. Peptides: A package for data mining of antimicrobial peptides. The R Journal. 7(1), 4–14 (2015).</t>
+  </si>
+  <si>
+    <t>Calculates the aliphatic index for the full-length protein. Aliphatic amino acids (A, I, L and V) are responsible for the thermal stability of proteins. The aliphatic index was proposed by Ikai (1980) and evaluates the thermostability of proteins based on the percentage of each of the aliphatic amino acids that build up proteins.</t>
+  </si>
+  <si>
+    <t>This function calculates the GRAVY hydrophobicity index of an amino acids sequence using the Kyte-Doolittle index for the full-length protein</t>
+  </si>
+  <si>
+    <t>Calculates the aliphatic index for the 'core' within 12Å of the catalytic cysteine. Aliphatic amino acids (A, I, L and V) are responsible for the thermal stability of proteins. The aliphatic index was proposed by Ikai (1980) and evaluates the thermostability of proteins based on the percentage of each of the aliphatic amino acids that build up proteins.</t>
+  </si>
+  <si>
+    <t>This function calculates the GRAVY hydrophobicity index of an amino acids sequence using the Kyte-Doolittle index for the protein 'core' within 12Å of the catalytic cysteine</t>
+  </si>
+  <si>
+    <t>Boman, H. G. (2003). Antibacterial peptides: basic facts and emerging concepts. Journal of Internal Medicine, 254(3), 197-215.</t>
+  </si>
+  <si>
+    <t>Eisenberg, D., Weiss, R. M., &amp; Terwilliger, T. C. (1984). The hydrophobic moment detects periodicity in protein hydrophobicity. Proceedings of the National Academy of Sciences, 81(1), 140-144.</t>
+  </si>
+  <si>
+    <t>Calculates the instability index proposed by Guruprasad (1990). This index predicts the stability of a protein based on its amino acid composition, a protein whose instability index is smaller than 40 is predicted as stable, a value above 40 predicts that the protein may be unstable</t>
+  </si>
+  <si>
+    <t>Computes the potential protein interaction index proposed by Boman (2003) based in the amino acid sequence of a protein. The index is equal to the sum of the solubility values for all residues in a sequence, it might give an overall estimate of the potential of a peptide to bind to membranes or other proteins as receptors, to normalize it is divided by the number of residues.</t>
+  </si>
+  <si>
+    <t>Based on Eisenberg, D., Weiss, R. M., &amp; Terwilliger, T. C. (1984). Hydrophobic moment is a quantitative measure of the amphiphilicity perpendicular to the axis of any periodic peptide structure, such as the a-helix or b-sheet. It can be calculated for an amino acid sequence of N residues and their associated hydrophobicities Hn.</t>
+  </si>
+  <si>
+    <t>Guruprasad K, Reddy BV, Pandit MW (1990). "Correlation between stability of a protein and its dipeptide composition: a novel approach for predicting in vivo stability of a protein from its primary sequence". Protein Eng. 4 (2): 155 - 61. doi:10.1093/protein/4.2.155</t>
+  </si>
+  <si>
+    <t>Number of amino acids in a protein sequence</t>
+  </si>
+  <si>
+    <t>Molecular weight of a protein sequence calculated as the sum of
+the mass of each amino acid using the scale available on ExPASy's Compute pI/Mw tool.</t>
+  </si>
+  <si>
+    <t>calculates isoelectric point (pH at which a particular molecule or surface carries no net electrical charge).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z1: Lipophilicity. Z-scales are based on physicochemical properties of the AAs including NMR data and thin-layer chromatography (TLC) data. The computed average of Z-scales of all the amino acids in the corresponding peptide sequence.
+</t>
+  </si>
+  <si>
+    <t>Sandberg M, Eriksson L, Jonsson J, Sjostrom M, Wold S: New chemical descriptors relevant for the design of biologically active peptides. A multivariate characterization of 87 amino acids. J Med Chem 1998, 41:2481-2491.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z2: Steric properties (Steric bulk/Polarizability). Z-scales are based on physicochemical properties of the AAs including NMR data and thin-layer chromatography (TLC) data. The computed average of Z-scales of all the amino acids in the corresponding peptide sequence.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z3: Electronic properties (Polarity / Charge). Z-scales are based on physicochemical properties of the AAs including NMR data and thin-layer chromatography (TLC) data. The computed average of Z-scales of all the amino acids in the corresponding peptide sequence.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Z4 and Z5: Indices for electronegativity, heat of formation, electrophilicity and hardness. Z-scales are based on physicochemical properties of the AAs including NMR data and thin-layer chromatography (TLC) data. The computed average of Z-scales of all the amino acids in the corresponding peptide sequence.
+</t>
+  </si>
+  <si>
+    <t>T-scales are based on 67 common topological descriptors of 135 amino acids. These topological descriptors are based on the connectivity table of amino acids alone, and do not explicitly consider 3D properties of each structure.</t>
+  </si>
+  <si>
+    <t>Tian F, Zhou P, Li Z: T-scale as a novel vector of topological descriptors for amino acids and its application in QSARs of peptides. J Mol Struct. 2007, 830: 106-115. 10.1016/j.molstruc.2006.07.004.</t>
+  </si>
+  <si>
+    <t>PP1: Polarity. This function calculates the Cruciani properties of an amino-acids sequence using the scaled principal component scores that summarize a broad set of descriptors calculated based on the interaction of each amino acid residue with several chemical groups (or "probes"), such as charged ions, methyl, hydroxyl groups, and so forth.</t>
+  </si>
+  <si>
+    <t>PP2: Hydrophobicity. This function calculates the Cruciani properties of an amino-acids sequence using the scaled principal component scores that summarize a broad set of descriptors calculated based on the interaction of each amino acid residue with several chemical groups (or "probes"), such as charged ions, methyl, hydroxyl groups, and so forth.</t>
+  </si>
+  <si>
+    <t>PP3: H-bonding. This function calculates the Cruciani properties of an amino-acids sequence using the scaled principal component scores that summarize a broad set of descriptors calculated based on the interaction of each amino acid residue with several chemical groups (or "probes"), such as charged ions, methyl, hydroxyl groups, and so forth.</t>
+  </si>
+  <si>
+    <t>Cruciani, G., Baroni, M., Carosati, E., Clementi, M., Valigi, R., and Clementi, S. (2004) Peptide studies by means of principal properties of amino acids derived from MIF descriptors. J. Chemom. 18, 146-155.</t>
+  </si>
+  <si>
+    <t>VHSE1 and VHSE2: Hydrophobic properties. VHSE-scales (principal components score Vectors of Hydrophobic, Steric, and Electronic properties), is derived from principal components analysis (PCA) on independent families of 18 hydrophobic properties, 17 steric properties, and 15 electronic properties, respectively, which are included in total 50 physicochemical variables of 20 coded amino acids.</t>
+  </si>
+  <si>
+    <t>Mei, H. U., Liao, Z. H., Zhou, Y., &amp; Li, S. Z. (2005). A new set of amino acid descriptors and its application in peptide QSARs. Peptide Science, 80(6), 775-786.</t>
+  </si>
+  <si>
+    <t>VHSE3 and VHSE4: Steric properties. VHSE-scales (principal components score Vectors of Hydrophobic, Steric, and Electronic properties), is derived from principal components analysis (PCA) on independent families of 18 hydrophobic properties, 17 steric properties, and 15 electronic properties, respectively, which are included in total 50 physicochemical variables of 20 coded amino acids.</t>
+  </si>
+  <si>
+    <t>VHSE5 to VHSE8: Electronic properties. VHSE-scales (principal components score Vectors of Hydrophobic, Steric, and Electronic properties), is derived from principal components analysis (PCA) on independent families of 18 hydrophobic properties, 17 steric properties, and 15 electronic properties, respectively, which are included in total 50 physicochemical variables of 20 coded amino acids.</t>
+  </si>
+  <si>
+    <t>Yang, L., Shu, M., Ma, K., Mei, H., Jiang, Y., &amp; Li, Z. (2010). ST-scale as a novel amino acid descriptor and its application in QSAM of peptides and analogues. Amino acids, 38(3), 805-816.</t>
+  </si>
+  <si>
+    <t>ST-scales were proposed by Yang et al, taking 827 properties into account which are mainly constitutional, topological, geometrical, hydrophobic, electronic, and steric properties of a total set of 167 AAs.</t>
+  </si>
+  <si>
+    <t>F1: Hydrophobicity index. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
+  </si>
+  <si>
+    <t>Liang, G., &amp; Li, Z. (2007). Factor analysis scale of generalized amino acid information as the source of a new set of descriptors for elucidating the structure and activity relationships of cationic antimicrobial peptides. Molecular Informatics, 26(6), 754-763.</t>
+  </si>
+  <si>
+    <t>F2: Alpha and turn propensities. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
+  </si>
+  <si>
+    <t>F3: Bulky properties. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
+  </si>
+  <si>
+    <t>F4: Compositional characteristic index. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
+  </si>
+  <si>
+    <t>F5: Local flexibility. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
+  </si>
+  <si>
+    <t>F6: Electronic properties. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
+  </si>
+  <si>
+    <t>Kidera, A., Konishi, Y., Oka, M., Ooi, T., &amp; Scheraga, H. A. (1985). Statistical analysis of the physical properties of the 20 naturally occurring amino acids. Journal of Protein Chemistry, 4(1), 23-55.</t>
+  </si>
+  <si>
+    <t>KF1: Helix/bend preference. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
+  </si>
+  <si>
+    <t>KF2: Side-chain size. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
+  </si>
+  <si>
+    <t>KF3: Extended structure preference. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
+  </si>
+  <si>
+    <t>KF4: Hydrophobicity. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
+  </si>
+  <si>
+    <t>KF5: Double-bend preference. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
+  </si>
+  <si>
+    <t>KF6: Partial specific volume. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
+  </si>
+  <si>
+    <t>KF7: Flat extended preference. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
+  </si>
+  <si>
+    <t>KF8: Occurrence in alpha region. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
+  </si>
+  <si>
+    <t>KF9: pK-C. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
+  </si>
+  <si>
+    <t>KF10: Surrounding hydrophobicity. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
+  </si>
+  <si>
+    <t>Kyte J., Doolittle R.F. Hydropathicity. J. Mol. Biol. 157:105-132(1982).</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Chemical descriptors were calculated using the </t>
+      <t xml:space="preserve">Supplementary Table S3A. Chemical descriptors were calculated using the </t>
     </r>
     <r>
       <rPr>
@@ -1099,166 +1257,8 @@
     </r>
   </si>
   <si>
-    <t>Ikai (1980). Thermostability and aliphatic index of globular proteins. Journal of Biochemistry, 88(6), 1895-1898.</t>
-  </si>
-  <si>
-    <t>Osorio, D., Rondon-Villarreal, P. &amp; Torres, R. Peptides: A package for data mining of antimicrobial peptides. The R Journal. 7(1), 4–14 (2015).</t>
-  </si>
-  <si>
-    <t>Calculates the aliphatic index for the full-length protein. Aliphatic amino acids (A, I, L and V) are responsible for the thermal stability of proteins. The aliphatic index was proposed by Ikai (1980) and evaluates the thermostability of proteins based on the percentage of each of the aliphatic amino acids that build up proteins.</t>
-  </si>
-  <si>
-    <t>This function calculates the GRAVY hydrophobicity index of an amino acids sequence using the Kyte-Doolittle index for the full-length protein</t>
-  </si>
-  <si>
-    <t>Calculates the aliphatic index for the 'core' within 12Å of the catalytic cysteine. Aliphatic amino acids (A, I, L and V) are responsible for the thermal stability of proteins. The aliphatic index was proposed by Ikai (1980) and evaluates the thermostability of proteins based on the percentage of each of the aliphatic amino acids that build up proteins.</t>
-  </si>
-  <si>
-    <t>This function calculates the GRAVY hydrophobicity index of an amino acids sequence using the Kyte-Doolittle index for the protein 'core' within 12Å of the catalytic cysteine</t>
-  </si>
-  <si>
-    <t>Boman, H. G. (2003). Antibacterial peptides: basic facts and emerging concepts. Journal of Internal Medicine, 254(3), 197-215.</t>
-  </si>
-  <si>
-    <t>Eisenberg, D., Weiss, R. M., &amp; Terwilliger, T. C. (1984). The hydrophobic moment detects periodicity in protein hydrophobicity. Proceedings of the National Academy of Sciences, 81(1), 140-144.</t>
-  </si>
-  <si>
-    <t>Calculates the instability index proposed by Guruprasad (1990). This index predicts the stability of a protein based on its amino acid composition, a protein whose instability index is smaller than 40 is predicted as stable, a value above 40 predicts that the protein may be unstable</t>
-  </si>
-  <si>
-    <t>Computes the potential protein interaction index proposed by Boman (2003) based in the amino acid sequence of a protein. The index is equal to the sum of the solubility values for all residues in a sequence, it might give an overall estimate of the potential of a peptide to bind to membranes or other proteins as receptors, to normalize it is divided by the number of residues.</t>
-  </si>
-  <si>
-    <t>Based on Eisenberg, D., Weiss, R. M., &amp; Terwilliger, T. C. (1984). Hydrophobic moment is a quantitative measure of the amphiphilicity perpendicular to the axis of any periodic peptide structure, such as the a-helix or b-sheet. It can be calculated for an amino acid sequence of N residues and their associated hydrophobicities Hn.</t>
-  </si>
-  <si>
-    <t>Guruprasad K, Reddy BV, Pandit MW (1990). "Correlation between stability of a protein and its dipeptide composition: a novel approach for predicting in vivo stability of a protein from its primary sequence". Protein Eng. 4 (2): 155 - 61. doi:10.1093/protein/4.2.155</t>
-  </si>
-  <si>
-    <t>Number of amino acids in a protein sequence</t>
-  </si>
-  <si>
-    <t>Molecular weight of a protein sequence calculated as the sum of
-the mass of each amino acid using the scale available on ExPASy's Compute pI/Mw tool.</t>
-  </si>
-  <si>
-    <t>calculates isoelectric point (pH at which a particular molecule or surface carries no net electrical charge).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z1: Lipophilicity. Z-scales are based on physicochemical properties of the AAs including NMR data and thin-layer chromatography (TLC) data. The computed average of Z-scales of all the amino acids in the corresponding peptide sequence.
-</t>
-  </si>
-  <si>
-    <t>Sandberg M, Eriksson L, Jonsson J, Sjostrom M, Wold S: New chemical descriptors relevant for the design of biologically active peptides. A multivariate characterization of 87 amino acids. J Med Chem 1998, 41:2481-2491.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z2: Steric properties (Steric bulk/Polarizability). Z-scales are based on physicochemical properties of the AAs including NMR data and thin-layer chromatography (TLC) data. The computed average of Z-scales of all the amino acids in the corresponding peptide sequence.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z3: Electronic properties (Polarity / Charge). Z-scales are based on physicochemical properties of the AAs including NMR data and thin-layer chromatography (TLC) data. The computed average of Z-scales of all the amino acids in the corresponding peptide sequence.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Z4 and Z5: Indices for electronegativity, heat of formation, electrophilicity and hardness. Z-scales are based on physicochemical properties of the AAs including NMR data and thin-layer chromatography (TLC) data. The computed average of Z-scales of all the amino acids in the corresponding peptide sequence.
-</t>
-  </si>
-  <si>
-    <t>T-scales are based on 67 common topological descriptors of 135 amino acids. These topological descriptors are based on the connectivity table of amino acids alone, and do not explicitly consider 3D properties of each structure.</t>
-  </si>
-  <si>
-    <t>Tian F, Zhou P, Li Z: T-scale as a novel vector of topological descriptors for amino acids and its application in QSARs of peptides. J Mol Struct. 2007, 830: 106-115. 10.1016/j.molstruc.2006.07.004.</t>
-  </si>
-  <si>
-    <t>PP1: Polarity. This function calculates the Cruciani properties of an amino-acids sequence using the scaled principal component scores that summarize a broad set of descriptors calculated based on the interaction of each amino acid residue with several chemical groups (or "probes"), such as charged ions, methyl, hydroxyl groups, and so forth.</t>
-  </si>
-  <si>
-    <t>PP2: Hydrophobicity. This function calculates the Cruciani properties of an amino-acids sequence using the scaled principal component scores that summarize a broad set of descriptors calculated based on the interaction of each amino acid residue with several chemical groups (or "probes"), such as charged ions, methyl, hydroxyl groups, and so forth.</t>
-  </si>
-  <si>
-    <t>PP3: H-bonding. This function calculates the Cruciani properties of an amino-acids sequence using the scaled principal component scores that summarize a broad set of descriptors calculated based on the interaction of each amino acid residue with several chemical groups (or "probes"), such as charged ions, methyl, hydroxyl groups, and so forth.</t>
-  </si>
-  <si>
-    <t>Cruciani, G., Baroni, M., Carosati, E., Clementi, M., Valigi, R., and Clementi, S. (2004) Peptide studies by means of principal properties of amino acids derived from MIF descriptors. J. Chemom. 18, 146-155.</t>
-  </si>
-  <si>
-    <t>VHSE1 and VHSE2: Hydrophobic properties. VHSE-scales (principal components score Vectors of Hydrophobic, Steric, and Electronic properties), is derived from principal components analysis (PCA) on independent families of 18 hydrophobic properties, 17 steric properties, and 15 electronic properties, respectively, which are included in total 50 physicochemical variables of 20 coded amino acids.</t>
-  </si>
-  <si>
-    <t>Mei, H. U., Liao, Z. H., Zhou, Y., &amp; Li, S. Z. (2005). A new set of amino acid descriptors and its application in peptide QSARs. Peptide Science, 80(6), 775-786.</t>
-  </si>
-  <si>
-    <t>VHSE3 and VHSE4: Steric properties. VHSE-scales (principal components score Vectors of Hydrophobic, Steric, and Electronic properties), is derived from principal components analysis (PCA) on independent families of 18 hydrophobic properties, 17 steric properties, and 15 electronic properties, respectively, which are included in total 50 physicochemical variables of 20 coded amino acids.</t>
-  </si>
-  <si>
-    <t>VHSE5 to VHSE8: Electronic properties. VHSE-scales (principal components score Vectors of Hydrophobic, Steric, and Electronic properties), is derived from principal components analysis (PCA) on independent families of 18 hydrophobic properties, 17 steric properties, and 15 electronic properties, respectively, which are included in total 50 physicochemical variables of 20 coded amino acids.</t>
-  </si>
-  <si>
-    <t>Yang, L., Shu, M., Ma, K., Mei, H., Jiang, Y., &amp; Li, Z. (2010). ST-scale as a novel amino acid descriptor and its application in QSAM of peptides and analogues. Amino acids, 38(3), 805-816.</t>
-  </si>
-  <si>
-    <t>ST-scales were proposed by Yang et al, taking 827 properties into account which are mainly constitutional, topological, geometrical, hydrophobic, electronic, and steric properties of a total set of 167 AAs.</t>
-  </si>
-  <si>
-    <t>F1: Hydrophobicity index. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
-  </si>
-  <si>
-    <t>Liang, G., &amp; Li, Z. (2007). Factor analysis scale of generalized amino acid information as the source of a new set of descriptors for elucidating the structure and activity relationships of cationic antimicrobial peptides. Molecular Informatics, 26(6), 754-763.</t>
-  </si>
-  <si>
-    <t>F2: Alpha and turn propensities. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
-  </si>
-  <si>
-    <t>F3: Bulky properties. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
-  </si>
-  <si>
-    <t>F4: Compositional characteristic index. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
-  </si>
-  <si>
-    <t>F5: Local flexibility. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
-  </si>
-  <si>
-    <t>F6: Electronic properties. FASGAI Factor Analysis Scale of Generalized Amino Acid Information (FASGAI) proposed by Liang and Li (2007), is a set of amino acid descriptors, that reflects hydrophobicity, alpha and turn propensities, bulky properties, compositional characteristics, local flexibility, and electronic properties, was derived from multi-dimensional properties of 20 naturally occurring amino acids</t>
-  </si>
-  <si>
-    <t>Kidera, A., Konishi, Y., Oka, M., Ooi, T., &amp; Scheraga, H. A. (1985). Statistical analysis of the physical properties of the 20 naturally occurring amino acids. Journal of Protein Chemistry, 4(1), 23-55.</t>
-  </si>
-  <si>
-    <t>KF1: Helix/bend preference. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
-  </si>
-  <si>
-    <t>KF2: Side-chain size. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
-  </si>
-  <si>
-    <t>KF3: Extended structure preference. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
-  </si>
-  <si>
-    <t>KF4: Hydrophobicity. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
-  </si>
-  <si>
-    <t>KF5: Double-bend preference. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
-  </si>
-  <si>
-    <t>KF6: Partial specific volume. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
-  </si>
-  <si>
-    <t>KF7: Flat extended preference. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
-  </si>
-  <si>
-    <t>KF8: Occurrence in alpha region. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
-  </si>
-  <si>
-    <t>KF9: pK-C. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
-  </si>
-  <si>
-    <t>KF10: Surrounding hydrophobicity. The Kidera Factors were originally derived by applying multivariate analysis to 188 physical properties of the 20 amino acids and using dimension reduction techniques. This function calculates the average of the ten Kidera factors for a protein sequence.</t>
-  </si>
-  <si>
-    <t>Kyte J., Doolittle R.F. Hydropathicity. J. Mol. Biol. 157:105-132(1982).</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Protein descriptors were calculated using the </t>
+      <t xml:space="preserve">Supplementary Table S3B. Protein descriptors were calculated using the </t>
     </r>
     <r>
       <rPr>
@@ -2208,7 +2208,7 @@
   <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+      <selection activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2221,7 +2221,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -3602,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3650,10 +3650,10 @@
         <v>287</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="99" customHeight="1" x14ac:dyDescent="0.2">
@@ -3661,10 +3661,10 @@
         <v>288</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -3672,10 +3672,10 @@
         <v>289</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -3683,10 +3683,10 @@
         <v>290</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3694,10 +3694,10 @@
         <v>291</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -3705,10 +3705,10 @@
         <v>292</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -3716,10 +3716,10 @@
         <v>293</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3727,7 +3727,7 @@
         <v>294</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>295</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -3743,7 +3743,7 @@
         <v>296</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
@@ -3751,10 +3751,10 @@
         <v>297</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
@@ -3762,10 +3762,10 @@
         <v>298</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
@@ -3773,10 +3773,10 @@
         <v>299</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
@@ -3784,10 +3784,10 @@
         <v>300</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="2" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
@@ -3795,10 +3795,10 @@
         <v>301</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -3806,10 +3806,10 @@
         <v>302</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -3817,10 +3817,10 @@
         <v>303</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -3828,10 +3828,10 @@
         <v>304</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -3839,10 +3839,10 @@
         <v>305</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -3850,10 +3850,10 @@
         <v>306</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3861,10 +3861,10 @@
         <v>307</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3872,10 +3872,10 @@
         <v>308</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3883,10 +3883,10 @@
         <v>309</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3894,10 +3894,10 @@
         <v>310</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3905,10 +3905,10 @@
         <v>311</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3916,10 +3916,10 @@
         <v>312</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3927,10 +3927,10 @@
         <v>313</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3938,10 +3938,10 @@
         <v>314</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3949,10 +3949,10 @@
         <v>315</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3960,10 +3960,10 @@
         <v>316</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -3971,10 +3971,10 @@
         <v>317</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -3982,10 +3982,10 @@
         <v>318</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -3993,10 +3993,10 @@
         <v>319</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -4004,10 +4004,10 @@
         <v>320</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -4015,10 +4015,10 @@
         <v>321</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -4026,10 +4026,10 @@
         <v>322</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -4037,10 +4037,10 @@
         <v>323</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -4048,10 +4048,10 @@
         <v>324</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -4059,10 +4059,10 @@
         <v>325</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -4070,10 +4070,10 @@
         <v>326</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -4081,10 +4081,10 @@
         <v>327</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -4092,10 +4092,10 @@
         <v>328</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -4103,10 +4103,10 @@
         <v>329</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -4114,10 +4114,10 @@
         <v>330</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -4125,10 +4125,10 @@
         <v>331</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4136,10 +4136,10 @@
         <v>332</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4147,10 +4147,10 @@
         <v>333</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4158,10 +4158,10 @@
         <v>334</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4169,10 +4169,10 @@
         <v>335</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4180,10 +4180,10 @@
         <v>336</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4191,10 +4191,10 @@
         <v>337</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4202,10 +4202,10 @@
         <v>338</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4213,10 +4213,10 @@
         <v>339</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4224,10 +4224,10 @@
         <v>340</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -4235,10 +4235,10 @@
         <v>341</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
